--- a/Documentos/Calculo de Preço.xlsx
+++ b/Documentos/Calculo de Preço.xlsx
@@ -37,10 +37,10 @@
     <t>Ass. Trienal</t>
   </si>
   <si>
-    <t>Venda Anual</t>
-  </si>
-  <si>
-    <t>Venda Trienal</t>
+    <t>Plano Anual</t>
+  </si>
+  <si>
+    <t>Plano Trienal</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,8 +438,8 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <f>SUM(A2*2 + B2)</f>
-        <v>250</v>
+        <f>SUM(A2*1 + B2)</f>
+        <v>200</v>
       </c>
       <c r="D2">
         <f>SUM(A2*1)</f>
@@ -458,12 +458,12 @@
         <v>1260</v>
       </c>
       <c r="H2">
-        <f>SUM(A2*2 + B2)+ A2*12</f>
-        <v>850</v>
+        <f>SUM(A2*2 + B2*2)+ A2*12</f>
+        <v>1000</v>
       </c>
       <c r="I2">
-        <f>SUM(A2*4 + B2*2)+ A2*12</f>
-        <v>1100</v>
+        <f>SUM(A2*3 + B2*3)+ A2*30</f>
+        <v>2100</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Calculo de Preço.xlsx
+++ b/Documentos/Calculo de Preço.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,38 +432,38 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>150</v>
       </c>
       <c r="C2">
         <f>SUM(A2*1 + B2)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <f>SUM(A2*1)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <f>SUM(A2*0.9)*6</f>
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="F2">
         <f>SUM(A2*0.8)*12</f>
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="G2">
         <f>SUM(A2*0.7)*36</f>
-        <v>1260</v>
+        <v>756</v>
       </c>
       <c r="H2">
         <f>SUM(A2*2 + B2*2)+ A2*12</f>
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="I2">
         <f>SUM(A2*3 + B2*3)+ A2*30</f>
-        <v>2100</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
